--- a/Лаб1.xlsx
+++ b/Лаб1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>13.</t>
   </si>
@@ -72,6 +72,41 @@
   </si>
   <si>
     <t xml:space="preserve"> Тарталетка</t>
+  </si>
+  <si>
+    <t>Данные для общего графика</t>
+  </si>
+  <si>
+    <t>Общая</t>
+  </si>
+  <si>
+    <t>Сдвиги</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>За час Жак и Ренье приготовят 35 круассанов или 50 тарталеток</t>
+  </si>
+  <si>
+    <t>Так как альтернативные издержки у поваров разные необходимо определить, в какой последовательности Жак и Ренье будут приступать к приготовки дисертов</t>
+  </si>
+  <si>
+    <t>Альтернативные издержки поваров одинаковые, и они пропорциональны, Ренье быстрее Жака в два раза</t>
+  </si>
+  <si>
+    <t>Рассмотрим альтернативные издержки круассан. Жак готовит их медленнее, а Ренье быстрее, но если доверить готовить их Жаку, то Жак «потеряет» больше тарталеток.(Так как альтернативные издержки Жака больше, чем у Ренье). Из этого следует, что если нужно больше 15 круассанов за час, то тогда будет совместная работа.
+Следовательно, если потребуется произвести до 2 круасанов, их будет производить Жак, и только в
+том случае, когда потребуется изготовить большее их количество, подключится Ренье.</t>
   </si>
 </sst>
 </file>
@@ -125,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -134,6 +169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -189,7 +227,19 @@
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Кривая производственных Жака</a:t>
+              <a:t>Кривая производственных</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>возможностей</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU">
               <a:effectLst/>
@@ -296,7 +346,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,7 +416,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3333333333333333</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,7 +424,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -382,11 +431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073005680"/>
-        <c:axId val="2072999152"/>
+        <c:axId val="438144880"/>
+        <c:axId val="438145968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073005680"/>
+        <c:axId val="438144880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,12 +534,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072999152"/>
+        <c:crossAx val="438145968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2072999152"/>
+        <c:axId val="438145968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,7 +646,602 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073005680"/>
+        <c:crossAx val="438144880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Суммарная КПВ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Жак</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ренье</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$F$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Общая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$J$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$K$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="438145424"/>
+        <c:axId val="438141616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438145424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Круассан</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438141616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="438141616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Тарталетка</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="438145424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -718,7 +1362,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1226,9 +2413,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>642937</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -1248,6 +2435,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1519,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,61 +2751,75 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="F11">
+        <f>$B$12/$B$13</f>
+        <v>0.75</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>$B$13/$B$12</f>
+        <v>1.3333333333333333</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1596,8 +2829,22 @@
       <c r="C12">
         <v>20</v>
       </c>
+      <c r="F12">
+        <f>$C$12/$C$13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>$C$13/$C$12</f>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1608,56 +2855,137 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4"/>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <f>B12/B13</f>
+        <f>$B$12/$B$13</f>
         <v>0.75</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f>C13/C12</f>
+        <f>$B$13/$B$12</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F17">
+        <f>$B$12/$B$13</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>$D$18</f>
         <v>1.5</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="I17">
+        <f>$B$13/$B$12 +$D$18</f>
+        <v>2.833333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18">
-        <f>C12/C13</f>
+        <f>$C$12/$C$13</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <f>B13/B12</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E18">
+        <f>$C$13/$C$12</f>
+        <v>1.5</v>
+      </c>
+      <c r="F18">
+        <f>$C$12/$C$13 + $B$17</f>
+        <v>1.4166666666666665</v>
+      </c>
+      <c r="G18">
+        <f xml:space="preserve"> $B$17</f>
+        <v>0.75</v>
+      </c>
+      <c r="H18">
         <v>0</v>
+      </c>
+      <c r="I18">
+        <f>$C$13/$C$12</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>B17+B18</f>
+        <v>1.4166666666666665</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>D17+D18</f>
+        <v>2.833333333333333</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1671,6 +2999,70 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!F12:F12</xm:f>
+              <xm:sqref>F12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!F18:F18</xm:f>
+              <xm:sqref>F18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!F17:F17</xm:f>
+              <xm:sqref>F17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF000000"/>
           <x14:colorNegative rgb="FF0070C0"/>

--- a/Лаб1.xlsx
+++ b/Лаб1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>13.</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Общая</t>
   </si>
   <si>
-    <t>Сдвиги</t>
-  </si>
-  <si>
     <t>x1</t>
   </si>
   <si>
@@ -95,25 +92,23 @@
     <t>y2</t>
   </si>
   <si>
-    <t>За час Жак и Ренье приготовят 35 круассанов или 50 тарталеток</t>
+    <t>x</t>
   </si>
   <si>
-    <t>Так как альтернативные издержки у поваров разные необходимо определить, в какой последовательности Жак и Ренье будут приступать к приготовки дисертов</t>
+    <t>y</t>
   </si>
   <si>
-    <t>Альтернативные издержки поваров одинаковые, и они пропорциональны, Ренье быстрее Жака в два раза</t>
+    <t>Для таблицы</t>
   </si>
   <si>
-    <t>Рассмотрим альтернативные издержки круассан. Жак готовит их медленнее, а Ренье быстрее, но если доверить готовить их Жаку, то Жак «потеряет» больше тарталеток.(Так как альтернативные издержки Жака больше, чем у Ренье). Из этого следует, что если нужно больше 15 круассанов за час, то тогда будет совместная работа.
-Следовательно, если потребуется произвести до 2 круасанов, их будет производить Жак, и только в
-том случае, когда потребуется изготовить большее их количество, подключится Ренье.</t>
+    <t>Сдвиги для суммарной КПВ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +129,15 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -160,19 +164,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -338,7 +344,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$17:$D$17</c:f>
+              <c:f>Лист1!$D$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -408,7 +414,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$18:$D$18</c:f>
+              <c:f>Лист1!$D$18:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -431,11 +437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438144880"/>
-        <c:axId val="438145968"/>
+        <c:axId val="600608128"/>
+        <c:axId val="600609760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438144880"/>
+        <c:axId val="600608128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,12 +540,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438145968"/>
+        <c:crossAx val="600609760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438145968"/>
+        <c:axId val="600609760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,7 +652,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438144880"/>
+        <c:crossAx val="600608128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -848,7 +854,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$F$17:$G$17</c:f>
+              <c:f>Лист1!$H$17:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -863,7 +869,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$17:$I$17</c:f>
+              <c:f>Лист1!$J$17:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -918,7 +924,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$F$18:$G$18</c:f>
+              <c:f>Лист1!$H$18:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -933,7 +939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$H$18:$I$18</c:f>
+              <c:f>Лист1!$J$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -953,7 +959,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$M$21</c:f>
+              <c:f>Лист1!$I$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1003,7 +1009,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$K$21:$L$21</c:f>
+              <c:f>Лист1!$L$21:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1026,11 +1032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="438145424"/>
-        <c:axId val="438141616"/>
+        <c:axId val="600605952"/>
+        <c:axId val="600605408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="438145424"/>
+        <c:axId val="600605952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,12 +1135,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438141616"/>
+        <c:crossAx val="600605408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="438141616"/>
+        <c:axId val="600605408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1247,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438145424"/>
+        <c:crossAx val="600605952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2414,14 +2420,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2442,16 +2448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2738,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,57 +2757,59 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11">
@@ -2819,14 +2827,14 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>20</v>
       </c>
       <c r="F12">
@@ -2844,51 +2852,56 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="F15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="I16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <f>$B$12/$B$13</f>
         <v>0.75</v>
       </c>
@@ -2896,31 +2909,34 @@
         <v>0</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
         <f>$B$13/$B$12</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f>$B$12/$B$13</f>
         <v>0.75</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H17">
-        <f>$D$18</f>
+      <c r="J17">
+        <f>$E$18</f>
         <v>1.5</v>
       </c>
-      <c r="I17">
-        <f>$B$13/$B$12 +$D$18</f>
+      <c r="K17">
+        <f>$B$13/$B$12 +$E$18</f>
         <v>2.833333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <f>$C$12/$C$13</f>
         <v>0.66666666666666663</v>
       </c>
@@ -2928,23 +2944,43 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
         <f>$C$13/$C$12</f>
         <v>1.5</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <f>$C$12/$C$13 + $B$17</f>
         <v>1.4166666666666665</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <f xml:space="preserve"> $B$17</f>
         <v>0.75</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <f>$C$13/$C$12</f>
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2953,6 +2989,14 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
       <c r="J21">
         <f>B17+B18</f>
         <v>1.4166666666666665</v>
@@ -2961,37 +3005,56 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <f>D17+D18</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>E17+E18</f>
         <v>2.833333333333333</v>
       </c>
-      <c r="M21" t="s">
-        <v>17</v>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J23" t="s">
-        <v>23</v>
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <f>$B$12/$B$13</f>
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="4">
+        <f>$B$13/$B$12</f>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>24</v>
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <f>$C$12/$C$13</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24" s="4">
+        <f>$C$13/$C$12</f>
+        <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="J25" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>25</v>
-      </c>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3010,8 +3073,64 @@
           <x14:colorLow rgb="FF0070C0"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Лист1!F11:F11</xm:f>
-              <xm:sqref>F11</xm:sqref>
+              <xm:f>Лист1!B23:B23</xm:f>
+              <xm:sqref>B23</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B24:B24</xm:f>
+              <xm:sqref>B24</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!B17:B17</xm:f>
+              <xm:sqref>B17</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Лист1!B18:B18</xm:f>
+              <xm:sqref>B18</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!H17:H17</xm:f>
+              <xm:sqref>H17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF000000"/>
+          <x14:colorNegative rgb="FF0070C0"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF0070C0"/>
+          <x14:colorFirst rgb="FF0070C0"/>
+          <x14:colorLast rgb="FF0070C0"/>
+          <x14:colorHigh rgb="FF0070C0"/>
+          <x14:colorLow rgb="FF0070C0"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Лист1!H18:H18</xm:f>
+              <xm:sqref>H18</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -3042,44 +3161,8 @@
           <x14:colorLow rgb="FF0070C0"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Лист1!F18:F18</xm:f>
-              <xm:sqref>F18</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Лист1!F17:F17</xm:f>
-              <xm:sqref>F17</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF000000"/>
-          <x14:colorNegative rgb="FF0070C0"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FF0070C0"/>
-          <x14:colorFirst rgb="FF0070C0"/>
-          <x14:colorLast rgb="FF0070C0"/>
-          <x14:colorHigh rgb="FF0070C0"/>
-          <x14:colorLow rgb="FF0070C0"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Лист1!B17:B17</xm:f>
-              <xm:sqref>B17</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Лист1!B18:B18</xm:f>
-              <xm:sqref>B18</xm:sqref>
+              <xm:f>Лист1!F11:F11</xm:f>
+              <xm:sqref>F11</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
